--- a/433_receiver/app/AT32F421F8P7_WorkBench/project/MDK_V5/AT32F421F8P7_WorkBench_analysis.xlsx
+++ b/433_receiver/app/AT32F421F8P7_WorkBench/project/MDK_V5/AT32F421F8P7_WorkBench_analysis.xlsx
@@ -23,7 +23,7 @@
     <t>startup_at32f421.o</t>
   </si>
   <si>
-    <t>lto-llvm-752626.o</t>
+    <t>lto-llvm-8064e3.o</t>
   </si>
   <si>
     <t>mc_w.l</t>
@@ -177,7 +177,7 @@
                   <c:v>startup_at32f421.o</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>lto-llvm-752626.o</c:v>
+                  <c:v>lto-llvm-8064e3.o</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Totals</c:v>
@@ -269,7 +269,7 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>lto-llvm-752626.o</c:v>
+                  <c:v>lto-llvm-8064e3.o</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>mc_w.l</c:v>
@@ -314,37 +314,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>94.4906005859375</c:v>
+                  <c:v>94.56271362304688</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.880192399024963</c:v>
+                  <c:v>1.855581164360046</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.749016165733337</c:v>
+                  <c:v>1.72612202167511</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7141816020011902</c:v>
+                  <c:v>0.7048331499099731</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.349803239107132</c:v>
+                  <c:v>0.3452244102954865</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2332021594047546</c:v>
+                  <c:v>0.2301495969295502</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2186270207166672</c:v>
+                  <c:v>0.2157652527093887</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2186270207166672</c:v>
+                  <c:v>0.2157652527093887</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.05830053985118866</c:v>
+                  <c:v>0.05753739923238754</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.05830053985118866</c:v>
+                  <c:v>0.05753739923238754</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.02915026992559433</c:v>
+                  <c:v>0.02876869961619377</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -846,10 +846,10 @@
         <v>221</v>
       </c>
       <c r="D4" s="1">
-        <v>12966</v>
+        <v>13148</v>
       </c>
       <c r="E4" s="1">
-        <v>12930</v>
+        <v>13112</v>
       </c>
       <c r="F4" s="1">
         <v>32</v>
@@ -950,16 +950,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>94.4906005859375</v>
+        <v>94.56271362304688</v>
       </c>
       <c r="C3" s="1">
-        <v>12966</v>
+        <v>13148</v>
       </c>
       <c r="D3" s="1">
         <v>221</v>
       </c>
       <c r="E3" s="1">
-        <v>12930</v>
+        <v>13112</v>
       </c>
       <c r="F3" s="1">
         <v>32</v>
@@ -976,7 +976,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>1.880192399024963</v>
+        <v>1.855581164360046</v>
       </c>
       <c r="C4" s="1">
         <v>258</v>
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>1.749016165733337</v>
+        <v>1.72612202167511</v>
       </c>
       <c r="C5" s="1">
         <v>240</v>
@@ -1028,7 +1028,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>0.7141816020011902</v>
+        <v>0.7048331499099731</v>
       </c>
       <c r="C6" s="1">
         <v>98</v>
@@ -1054,7 +1054,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>0.349803239107132</v>
+        <v>0.3452244102954865</v>
       </c>
       <c r="C7" s="1">
         <v>48</v>
@@ -1080,7 +1080,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>0.2332021594047546</v>
+        <v>0.2301495969295502</v>
       </c>
       <c r="C8" s="1">
         <v>32</v>
@@ -1106,7 +1106,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>0.2186270207166672</v>
+        <v>0.2157652527093887</v>
       </c>
       <c r="C9" s="1">
         <v>30</v>
@@ -1132,7 +1132,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.2186270207166672</v>
+        <v>0.2157652527093887</v>
       </c>
       <c r="C10" s="1">
         <v>30</v>
@@ -1158,7 +1158,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.05830053985118866</v>
+        <v>0.05753739923238754</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
@@ -1184,7 +1184,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.05830053985118866</v>
+        <v>0.05753739923238754</v>
       </c>
       <c r="C12" s="1">
         <v>8</v>
@@ -1210,7 +1210,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.02915026992559433</v>
+        <v>0.02876869961619377</v>
       </c>
       <c r="C13" s="1">
         <v>4</v>

--- a/433_receiver/app/AT32F421F8P7_WorkBench/project/MDK_V5/AT32F421F8P7_WorkBench_analysis.xlsx
+++ b/433_receiver/app/AT32F421F8P7_WorkBench/project/MDK_V5/AT32F421F8P7_WorkBench_analysis.xlsx
@@ -23,7 +23,7 @@
     <t>startup_at32f421.o</t>
   </si>
   <si>
-    <t>lto-llvm-8064e3.o</t>
+    <t>lto-llvm-45ec65.o</t>
   </si>
   <si>
     <t>mc_w.l</t>
@@ -177,7 +177,7 @@
                   <c:v>startup_at32f421.o</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>lto-llvm-8064e3.o</c:v>
+                  <c:v>lto-llvm-45ec65.o</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Totals</c:v>
@@ -269,7 +269,7 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>lto-llvm-8064e3.o</c:v>
+                  <c:v>lto-llvm-45ec65.o</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>mc_w.l</c:v>
@@ -314,37 +314,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>94.56271362304688</c:v>
+                  <c:v>94.56818389892578</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.855581164360046</c:v>
+                  <c:v>1.85371458530426</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.72612202167511</c:v>
+                  <c:v>1.724385738372803</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7048331499099731</c:v>
+                  <c:v>0.7041241526603699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3452244102954865</c:v>
+                  <c:v>0.3448771238327026</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2301495969295502</c:v>
+                  <c:v>0.2299180924892426</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2157652527093887</c:v>
+                  <c:v>0.2155482172966003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2157652527093887</c:v>
+                  <c:v>0.2155482172966003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.05753739923238754</c:v>
+                  <c:v>0.05747952312231064</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.05753739923238754</c:v>
+                  <c:v>0.05747952312231064</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.02876869961619377</c:v>
+                  <c:v>0.02873976156115532</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -846,10 +846,10 @@
         <v>221</v>
       </c>
       <c r="D4" s="1">
-        <v>13148</v>
+        <v>13162</v>
       </c>
       <c r="E4" s="1">
-        <v>13112</v>
+        <v>13126</v>
       </c>
       <c r="F4" s="1">
         <v>32</v>
@@ -950,16 +950,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>94.56271362304688</v>
+        <v>94.56818389892578</v>
       </c>
       <c r="C3" s="1">
-        <v>13148</v>
+        <v>13162</v>
       </c>
       <c r="D3" s="1">
         <v>221</v>
       </c>
       <c r="E3" s="1">
-        <v>13112</v>
+        <v>13126</v>
       </c>
       <c r="F3" s="1">
         <v>32</v>
@@ -976,7 +976,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>1.855581164360046</v>
+        <v>1.85371458530426</v>
       </c>
       <c r="C4" s="1">
         <v>258</v>
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>1.72612202167511</v>
+        <v>1.724385738372803</v>
       </c>
       <c r="C5" s="1">
         <v>240</v>
@@ -1028,7 +1028,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>0.7048331499099731</v>
+        <v>0.7041241526603699</v>
       </c>
       <c r="C6" s="1">
         <v>98</v>
@@ -1054,7 +1054,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>0.3452244102954865</v>
+        <v>0.3448771238327026</v>
       </c>
       <c r="C7" s="1">
         <v>48</v>
@@ -1080,7 +1080,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>0.2301495969295502</v>
+        <v>0.2299180924892426</v>
       </c>
       <c r="C8" s="1">
         <v>32</v>
@@ -1106,7 +1106,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>0.2157652527093887</v>
+        <v>0.2155482172966003</v>
       </c>
       <c r="C9" s="1">
         <v>30</v>
@@ -1132,7 +1132,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.2157652527093887</v>
+        <v>0.2155482172966003</v>
       </c>
       <c r="C10" s="1">
         <v>30</v>
@@ -1158,7 +1158,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.05753739923238754</v>
+        <v>0.05747952312231064</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
@@ -1184,7 +1184,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.05753739923238754</v>
+        <v>0.05747952312231064</v>
       </c>
       <c r="C12" s="1">
         <v>8</v>
@@ -1210,7 +1210,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.02876869961619377</v>
+        <v>0.02873976156115532</v>
       </c>
       <c r="C13" s="1">
         <v>4</v>

--- a/433_receiver/app/AT32F421F8P7_WorkBench/project/MDK_V5/AT32F421F8P7_WorkBench_analysis.xlsx
+++ b/433_receiver/app/AT32F421F8P7_WorkBench/project/MDK_V5/AT32F421F8P7_WorkBench_analysis.xlsx
@@ -23,7 +23,7 @@
     <t>startup_at32f421.o</t>
   </si>
   <si>
-    <t>lto-llvm-45ec65.o</t>
+    <t>lto-llvm-7db64e.o</t>
   </si>
   <si>
     <t>mc_w.l</t>
@@ -177,7 +177,7 @@
                   <c:v>startup_at32f421.o</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>lto-llvm-45ec65.o</c:v>
+                  <c:v>lto-llvm-7db64e.o</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Totals</c:v>
@@ -192,10 +192,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>82.24899291992188</c:v>
+                  <c:v>81.91999816894531</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.75100326538086</c:v>
+                  <c:v>18.07999992370606</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -269,7 +269,7 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>lto-llvm-45ec65.o</c:v>
+                  <c:v>lto-llvm-7db64e.o</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>mc_w.l</c:v>
@@ -314,37 +314,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>94.56818389892578</c:v>
+                  <c:v>94.52729034423828</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.85371458530426</c:v>
+                  <c:v>1.86767053604126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.724385738372803</c:v>
+                  <c:v>1.737367868423462</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7041241526603699</c:v>
+                  <c:v>0.7094252109527588</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3448771238327026</c:v>
+                  <c:v>0.3474735915660858</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2299180924892426</c:v>
+                  <c:v>0.2316490560770035</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2155482172966003</c:v>
+                  <c:v>0.2171709835529327</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2155482172966003</c:v>
+                  <c:v>0.2171709835529327</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.05747952312231064</c:v>
+                  <c:v>0.05791226401925087</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.05747952312231064</c:v>
+                  <c:v>0.05791226401925087</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.02873976156115532</c:v>
+                  <c:v>0.02895613200962544</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -814,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>82.24899291992188</v>
+        <v>81.91999816894531</v>
       </c>
       <c r="C3" s="1">
         <v>1024</v>
@@ -840,16 +840,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>17.75100326538086</v>
+        <v>18.07999992370606</v>
       </c>
       <c r="C4" s="1">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D4" s="1">
-        <v>13162</v>
+        <v>13058</v>
       </c>
       <c r="E4" s="1">
-        <v>13126</v>
+        <v>13022</v>
       </c>
       <c r="F4" s="1">
         <v>32</v>
@@ -858,7 +858,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="1">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -950,16 +950,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>94.56818389892578</v>
+        <v>94.52729034423828</v>
       </c>
       <c r="C3" s="1">
-        <v>13162</v>
+        <v>13058</v>
       </c>
       <c r="D3" s="1">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E3" s="1">
-        <v>13126</v>
+        <v>13022</v>
       </c>
       <c r="F3" s="1">
         <v>32</v>
@@ -968,7 +968,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="1">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -976,7 +976,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>1.85371458530426</v>
+        <v>1.86767053604126</v>
       </c>
       <c r="C4" s="1">
         <v>258</v>
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>1.724385738372803</v>
+        <v>1.737367868423462</v>
       </c>
       <c r="C5" s="1">
         <v>240</v>
@@ -1028,7 +1028,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>0.7041241526603699</v>
+        <v>0.7094252109527588</v>
       </c>
       <c r="C6" s="1">
         <v>98</v>
@@ -1054,7 +1054,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>0.3448771238327026</v>
+        <v>0.3474735915660858</v>
       </c>
       <c r="C7" s="1">
         <v>48</v>
@@ -1080,7 +1080,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>0.2299180924892426</v>
+        <v>0.2316490560770035</v>
       </c>
       <c r="C8" s="1">
         <v>32</v>
@@ -1106,7 +1106,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>0.2155482172966003</v>
+        <v>0.2171709835529327</v>
       </c>
       <c r="C9" s="1">
         <v>30</v>
@@ -1132,7 +1132,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.2155482172966003</v>
+        <v>0.2171709835529327</v>
       </c>
       <c r="C10" s="1">
         <v>30</v>
@@ -1158,7 +1158,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.05747952312231064</v>
+        <v>0.05791226401925087</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
@@ -1184,7 +1184,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.05747952312231064</v>
+        <v>0.05791226401925087</v>
       </c>
       <c r="C12" s="1">
         <v>8</v>
@@ -1210,7 +1210,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.02873976156115532</v>
+        <v>0.02895613200962544</v>
       </c>
       <c r="C13" s="1">
         <v>4</v>

--- a/433_receiver/app/AT32F421F8P7_WorkBench/project/MDK_V5/AT32F421F8P7_WorkBench_analysis.xlsx
+++ b/433_receiver/app/AT32F421F8P7_WorkBench/project/MDK_V5/AT32F421F8P7_WorkBench_analysis.xlsx
@@ -23,7 +23,7 @@
     <t>startup_at32f421.o</t>
   </si>
   <si>
-    <t>lto-llvm-7db64e.o</t>
+    <t>lto-llvm-a89fc3.o</t>
   </si>
   <si>
     <t>mc_w.l</t>
@@ -177,7 +177,7 @@
                   <c:v>startup_at32f421.o</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>lto-llvm-7db64e.o</c:v>
+                  <c:v>lto-llvm-a89fc3.o</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Totals</c:v>
@@ -269,7 +269,7 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>lto-llvm-7db64e.o</c:v>
+                  <c:v>lto-llvm-a89fc3.o</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>mc_w.l</c:v>
